--- a/Check_Registered/Data/Documents/Config.xlsx
+++ b/Check_Registered/Data/Documents/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\Check_Registered\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBEC156-3B2B-4FAB-A599-A24A2F8774C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5111DF-53AE-4E63-ADA4-0EA6172D061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -235,13 +235,22 @@
   </si>
   <si>
     <t>D:\UiPathProjects\UiPathAutomation\Check_Registered\Data\Documents</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
+    <t>ComplaintEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +263,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,11 +291,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -575,7 +599,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -609,7 +633,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -617,7 +641,7 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -625,7 +649,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -633,7 +657,7 @@
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -641,7 +665,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -649,7 +673,7 @@
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -658,7 +682,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -666,7 +690,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -674,7 +698,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -682,7 +706,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -690,7 +714,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -698,7 +722,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -706,7 +730,7 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -714,7 +738,7 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -722,7 +746,7 @@
       <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -730,12 +754,26 @@
       <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="5">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1701,10 +1739,9 @@
     <row r="983" ht="14.25" customHeight="1"/>
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Check_Registered/Data/Documents/Config.xlsx
+++ b/Check_Registered/Data/Documents/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\Check_Registered\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B45B2-91A5-484B-9549-6700CA29EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62610280-0150-49AF-AF87-06207413B518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>ComplaintEmail</t>
   </si>
   <si>
-    <t>complaint11@igrmaharashtra.gov.in</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,7 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -649,10 +648,10 @@
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="15.75">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -688,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -696,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -710,10 +709,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -742,18 +741,18 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -854,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1875,143 +1874,143 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2019,7 +2018,7 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3020,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/Check_Registered/Data/Documents/Config.xlsx
+++ b/Check_Registered/Data/Documents/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\Check_Registered\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62610280-0150-49AF-AF87-06207413B518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0CA8F1-C312-45AA-B321-A1677CF425B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>complaint@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
+    <t>raservicespune@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -600,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -857,7 +860,11 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1826,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
